--- a/data/pca/factorExposure/factorExposure_2012-10-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-30.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0009467355503983864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001936312383862177</v>
+      </c>
+      <c r="C2">
+        <v>0.02955607738033695</v>
+      </c>
+      <c r="D2">
+        <v>0.005456274396948201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0012163759920563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006836884106687893</v>
+      </c>
+      <c r="C4">
+        <v>0.08307661412431044</v>
+      </c>
+      <c r="D4">
+        <v>0.07505926660688676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.001275887126745887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01360253539147932</v>
+      </c>
+      <c r="C6">
+        <v>0.1129276613133427</v>
+      </c>
+      <c r="D6">
+        <v>0.02275791649969838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002056872779909391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004746810858477084</v>
+      </c>
+      <c r="C7">
+        <v>0.0577243077099933</v>
+      </c>
+      <c r="D7">
+        <v>0.03289460049136329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-9.283077161148967e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005491355302020996</v>
+      </c>
+      <c r="C8">
+        <v>0.03516496499453834</v>
+      </c>
+      <c r="D8">
+        <v>0.04213028085985203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003821508254020277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005029281874487553</v>
+      </c>
+      <c r="C9">
+        <v>0.07100631176930809</v>
+      </c>
+      <c r="D9">
+        <v>0.07569771610956602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001275786140687739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005749788232528491</v>
+      </c>
+      <c r="C10">
+        <v>0.05712702787700816</v>
+      </c>
+      <c r="D10">
+        <v>-0.1967147312265207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.004266039827873378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005517896632195228</v>
+      </c>
+      <c r="C11">
+        <v>0.07983602927283956</v>
+      </c>
+      <c r="D11">
+        <v>0.0640798282510744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001561989691082475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003916315147702415</v>
+      </c>
+      <c r="C12">
+        <v>0.0644425506206094</v>
+      </c>
+      <c r="D12">
+        <v>0.05064757204768316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001642774390678487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008696723475801891</v>
+      </c>
+      <c r="C13">
+        <v>0.06942784863039861</v>
+      </c>
+      <c r="D13">
+        <v>0.05795262791881745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002658901551258239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.000815320279534743</v>
+      </c>
+      <c r="C14">
+        <v>0.04360253333230536</v>
+      </c>
+      <c r="D14">
+        <v>0.008224203611235565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009784476369529753</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.00593799882913573</v>
+      </c>
+      <c r="C15">
+        <v>0.04093913182462484</v>
+      </c>
+      <c r="D15">
+        <v>0.02980591985722348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002266822978748181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004944851690347046</v>
+      </c>
+      <c r="C16">
+        <v>0.06434409652825245</v>
+      </c>
+      <c r="D16">
+        <v>0.05617536089033704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0001222566303943507</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008962863696693787</v>
+      </c>
+      <c r="C20">
+        <v>0.06506897940899187</v>
+      </c>
+      <c r="D20">
+        <v>0.04723962308715822</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005919868654842063</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009586822837910106</v>
+      </c>
+      <c r="C21">
+        <v>0.02058282417661427</v>
+      </c>
+      <c r="D21">
+        <v>0.04316325974026968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.0169923819697787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006596096322145494</v>
+      </c>
+      <c r="C22">
+        <v>0.08961315359209254</v>
+      </c>
+      <c r="D22">
+        <v>0.1181900412246159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01721675479891508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006410482749410486</v>
+      </c>
+      <c r="C23">
+        <v>0.09006293789152962</v>
+      </c>
+      <c r="D23">
+        <v>0.1192668068341806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003454762965008017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005443365177823915</v>
+      </c>
+      <c r="C24">
+        <v>0.0759593237617698</v>
+      </c>
+      <c r="D24">
+        <v>0.06770877093649116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005562865729570621</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003128336783752292</v>
+      </c>
+      <c r="C25">
+        <v>0.07838571693528623</v>
+      </c>
+      <c r="D25">
+        <v>0.06538739543539442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003968145928173568</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003615243965777004</v>
+      </c>
+      <c r="C26">
+        <v>0.03908051828641428</v>
+      </c>
+      <c r="D26">
+        <v>0.02559676221389443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.009061716777901527</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001424337710069656</v>
+      </c>
+      <c r="C28">
+        <v>0.1039957559767427</v>
+      </c>
+      <c r="D28">
+        <v>-0.3228730920867391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001269270634573256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002696167158416149</v>
+      </c>
+      <c r="C29">
+        <v>0.0492144150687403</v>
+      </c>
+      <c r="D29">
+        <v>0.008838278744363126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005331560894100467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009485921974167878</v>
+      </c>
+      <c r="C30">
+        <v>0.1418026334008028</v>
+      </c>
+      <c r="D30">
+        <v>0.1078161606963623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0002904132538732973</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006308733299678288</v>
+      </c>
+      <c r="C31">
+        <v>0.04431877039860398</v>
+      </c>
+      <c r="D31">
+        <v>0.02990040629400354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0004594977951295291</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.00366482830336188</v>
+      </c>
+      <c r="C32">
+        <v>0.04020938257616776</v>
+      </c>
+      <c r="D32">
+        <v>0.02545689041229696</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003206542055126708</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008838171482586921</v>
+      </c>
+      <c r="C33">
+        <v>0.08697304341317556</v>
+      </c>
+      <c r="D33">
+        <v>0.06639072037240078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005085276992667995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003984043394941279</v>
+      </c>
+      <c r="C34">
+        <v>0.0578077607142904</v>
+      </c>
+      <c r="D34">
+        <v>0.05728708165019386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.0004388363627872403</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005138855541415755</v>
+      </c>
+      <c r="C35">
+        <v>0.04098403221860236</v>
+      </c>
+      <c r="D35">
+        <v>0.01908469032602686</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004600433693640805</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00119387854041202</v>
+      </c>
+      <c r="C36">
+        <v>0.0251198269292939</v>
+      </c>
+      <c r="D36">
+        <v>0.02532664365070153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001160278030370809</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009099221743759765</v>
+      </c>
+      <c r="C38">
+        <v>0.03637135046696412</v>
+      </c>
+      <c r="D38">
+        <v>0.0155479806110785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01297100153060149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001071564019703177</v>
+      </c>
+      <c r="C39">
+        <v>0.1145345020729708</v>
+      </c>
+      <c r="D39">
+        <v>0.07860523922812049</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009151909585576221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003557202106785</v>
+      </c>
+      <c r="C40">
+        <v>0.09139624192069508</v>
+      </c>
+      <c r="D40">
+        <v>0.01540706564869729</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.00093630210138034</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007067911504550431</v>
+      </c>
+      <c r="C41">
+        <v>0.03780575532782252</v>
+      </c>
+      <c r="D41">
+        <v>0.03887656512940002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003700032585582393</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003858898102810536</v>
+      </c>
+      <c r="C43">
+        <v>0.05317061215086828</v>
+      </c>
+      <c r="D43">
+        <v>0.02653350738270782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01531335798804631</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.00304421518897526</v>
+      </c>
+      <c r="C44">
+        <v>0.1065168936381375</v>
+      </c>
+      <c r="D44">
+        <v>0.06635603283237403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001242600183726094</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001820393432353266</v>
+      </c>
+      <c r="C46">
+        <v>0.03311986152107223</v>
+      </c>
+      <c r="D46">
+        <v>0.03348952885832283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.002091756193949129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002167496237161752</v>
+      </c>
+      <c r="C47">
+        <v>0.03613535239618838</v>
+      </c>
+      <c r="D47">
+        <v>0.02072657587458382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00403148990940751</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006602813867975444</v>
+      </c>
+      <c r="C48">
+        <v>0.03006000855995351</v>
+      </c>
+      <c r="D48">
+        <v>0.03661710002985761</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0117179155587524</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01707882931960812</v>
+      </c>
+      <c r="C49">
+        <v>0.1884207991575542</v>
+      </c>
+      <c r="D49">
+        <v>0.007306402922834792</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.002186881689529257</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003553534119933104</v>
+      </c>
+      <c r="C50">
+        <v>0.04293116071732386</v>
+      </c>
+      <c r="D50">
+        <v>0.03805450261788204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-1.619762934055806e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004723234429563062</v>
+      </c>
+      <c r="C51">
+        <v>0.0256441158291839</v>
+      </c>
+      <c r="D51">
+        <v>0.02237081898460414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0008541152483727333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02093096902018196</v>
+      </c>
+      <c r="C53">
+        <v>0.1699004037302992</v>
+      </c>
+      <c r="D53">
+        <v>0.02478776089535269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001716053942946826</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008845579111092187</v>
+      </c>
+      <c r="C54">
+        <v>0.05430130177191286</v>
+      </c>
+      <c r="D54">
+        <v>0.04455196957085231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.005207552498488386</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009667737388125992</v>
+      </c>
+      <c r="C55">
+        <v>0.1087682549085902</v>
+      </c>
+      <c r="D55">
+        <v>0.03864971002768141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001476721182844801</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01990006601163817</v>
+      </c>
+      <c r="C56">
+        <v>0.1762505086197542</v>
+      </c>
+      <c r="D56">
+        <v>0.01480306471320592</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008789951974019916</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01967953131042895</v>
+      </c>
+      <c r="C58">
+        <v>0.1091590638914239</v>
+      </c>
+      <c r="D58">
+        <v>0.06373884785242269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.01075371532773308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009524237273754878</v>
+      </c>
+      <c r="C59">
+        <v>0.1641434145779914</v>
+      </c>
+      <c r="D59">
+        <v>-0.3363336443790915</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.005319924584183763</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02497877114160712</v>
+      </c>
+      <c r="C60">
+        <v>0.224977745477827</v>
+      </c>
+      <c r="D60">
+        <v>0.02342893997959164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01472558320794269</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001956175538035954</v>
+      </c>
+      <c r="C61">
+        <v>0.09458701754818327</v>
+      </c>
+      <c r="D61">
+        <v>0.05830539496442045</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1592944925897351</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1491499172030665</v>
+      </c>
+      <c r="C62">
+        <v>0.09674953370438455</v>
+      </c>
+      <c r="D62">
+        <v>0.02627687267246446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001068949727494471</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006513952430117737</v>
+      </c>
+      <c r="C63">
+        <v>0.05432447450040566</v>
+      </c>
+      <c r="D63">
+        <v>0.03022787175006788</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0003872179203848492</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01568402075064128</v>
+      </c>
+      <c r="C64">
+        <v>0.1043850129278996</v>
+      </c>
+      <c r="D64">
+        <v>0.05792513761942742</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00177533557182246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01781886239175956</v>
+      </c>
+      <c r="C65">
+        <v>0.1238359292701649</v>
+      </c>
+      <c r="D65">
+        <v>0.0203368015052004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007025587195871235</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01316933643132801</v>
+      </c>
+      <c r="C66">
+        <v>0.1592486241559996</v>
+      </c>
+      <c r="D66">
+        <v>0.1134956644461619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002695262693765962</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01532383677173367</v>
+      </c>
+      <c r="C67">
+        <v>0.06768498030092514</v>
+      </c>
+      <c r="D67">
+        <v>0.02831167668667702</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.008386266656345797</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0009280166926667923</v>
+      </c>
+      <c r="C68">
+        <v>0.08688111133852554</v>
+      </c>
+      <c r="D68">
+        <v>-0.2584248808521499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002336563127019972</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006062009540140707</v>
+      </c>
+      <c r="C69">
+        <v>0.05129484517610189</v>
+      </c>
+      <c r="D69">
+        <v>0.03822900280901683</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.000288974018384391</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.00189002866426628</v>
+      </c>
+      <c r="C70">
+        <v>0.004390250967383218</v>
+      </c>
+      <c r="D70">
+        <v>0.002409972622595251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.002739127802628208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005623848793760381</v>
+      </c>
+      <c r="C71">
+        <v>0.09185587621231994</v>
+      </c>
+      <c r="D71">
+        <v>-0.3044017462484192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004857732128728622</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01641042543782445</v>
+      </c>
+      <c r="C72">
+        <v>0.1554667340990099</v>
+      </c>
+      <c r="D72">
+        <v>0.01469529151581615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01450347949354143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03144651831575373</v>
+      </c>
+      <c r="C73">
+        <v>0.2829504939911134</v>
+      </c>
+      <c r="D73">
+        <v>0.05427342060828811</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.007224187278460656</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001919210227510242</v>
+      </c>
+      <c r="C74">
+        <v>0.1025638982191583</v>
+      </c>
+      <c r="D74">
+        <v>0.03620544374952755</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004528001338079096</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01117764736906153</v>
+      </c>
+      <c r="C75">
+        <v>0.1229698912790441</v>
+      </c>
+      <c r="D75">
+        <v>0.02162760829538488</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.005320538328888422</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02220737911588056</v>
+      </c>
+      <c r="C76">
+        <v>0.1484354317118195</v>
+      </c>
+      <c r="D76">
+        <v>0.05692720039348499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002407586799396433</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02183938034485421</v>
+      </c>
+      <c r="C77">
+        <v>0.1135877800778495</v>
+      </c>
+      <c r="D77">
+        <v>0.05226641069773082</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0006026388220760092</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01484948106552682</v>
+      </c>
+      <c r="C78">
+        <v>0.09637575200079966</v>
+      </c>
+      <c r="D78">
+        <v>0.07611886440181151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02165010303949126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03832162740099298</v>
+      </c>
+      <c r="C79">
+        <v>0.1568349871937516</v>
+      </c>
+      <c r="D79">
+        <v>0.0318011780965933</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006285077099384404</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01009027677599606</v>
+      </c>
+      <c r="C80">
+        <v>0.03906202303500907</v>
+      </c>
+      <c r="D80">
+        <v>0.03112853723080231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0004105078584100139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01570594652090556</v>
+      </c>
+      <c r="C81">
+        <v>0.1298009101099254</v>
+      </c>
+      <c r="D81">
+        <v>0.03802710086504016</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.001968186642535087</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02003031765149529</v>
+      </c>
+      <c r="C82">
+        <v>0.1390262229399944</v>
+      </c>
+      <c r="D82">
+        <v>0.04263892466561801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006651891856245094</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0102345802050505</v>
+      </c>
+      <c r="C83">
+        <v>0.05920008127660775</v>
+      </c>
+      <c r="D83">
+        <v>0.04952856099184895</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01349547734653681</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.0118916670673611</v>
+      </c>
+      <c r="C84">
+        <v>0.03723281397578817</v>
+      </c>
+      <c r="D84">
+        <v>-0.005597345198133262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01313891551097466</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02947754132697947</v>
+      </c>
+      <c r="C85">
+        <v>0.1248887085066042</v>
+      </c>
+      <c r="D85">
+        <v>0.03994217296490623</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002315622687620448</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004370272733479295</v>
+      </c>
+      <c r="C86">
+        <v>0.04962110269253157</v>
+      </c>
+      <c r="D86">
+        <v>0.03064043662440496</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004233610274619218</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01089783806964176</v>
+      </c>
+      <c r="C87">
+        <v>0.1286548928016845</v>
+      </c>
+      <c r="D87">
+        <v>0.07353648860651442</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01175554109347125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002865809805147453</v>
+      </c>
+      <c r="C88">
+        <v>0.06345893764687921</v>
+      </c>
+      <c r="D88">
+        <v>0.02563783797638937</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01659701484363803</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002116654362860704</v>
+      </c>
+      <c r="C89">
+        <v>0.1396936301899749</v>
+      </c>
+      <c r="D89">
+        <v>-0.3197799143402107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004955551348384308</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006569153467491381</v>
+      </c>
+      <c r="C90">
+        <v>0.1196900757324583</v>
+      </c>
+      <c r="D90">
+        <v>-0.3145885016612254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001623900902547543</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01039755691628047</v>
+      </c>
+      <c r="C91">
+        <v>0.09993250531892686</v>
+      </c>
+      <c r="D91">
+        <v>0.0254745475811366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01227657122045629</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0004400367444722737</v>
+      </c>
+      <c r="C92">
+        <v>0.1356391485125532</v>
+      </c>
+      <c r="D92">
+        <v>-0.3260083144993283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003750494759859667</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004473803503961375</v>
+      </c>
+      <c r="C93">
+        <v>0.1049345559357635</v>
+      </c>
+      <c r="D93">
+        <v>-0.3004269033090083</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>9.739278598060819e-05</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02187286012517376</v>
+      </c>
+      <c r="C94">
+        <v>0.1446130262797959</v>
+      </c>
+      <c r="D94">
+        <v>0.05083806485420722</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.003783078639080698</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01654358931143838</v>
+      </c>
+      <c r="C95">
+        <v>0.1215589808784381</v>
+      </c>
+      <c r="D95">
+        <v>0.06554894499847515</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0002963151087040998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03665998145848089</v>
+      </c>
+      <c r="C97">
+        <v>0.2231847753870772</v>
+      </c>
+      <c r="D97">
+        <v>-0.001900092397499387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00426661826785774</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0376122955119039</v>
+      </c>
+      <c r="C98">
+        <v>0.2528942224667705</v>
+      </c>
+      <c r="D98">
+        <v>0.0424555346724353</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9851487344797148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813988563462193</v>
+      </c>
+      <c r="C99">
+        <v>-0.1189177597335038</v>
+      </c>
+      <c r="D99">
+        <v>-0.02455660495832224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001186097026405202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002737001251476275</v>
+      </c>
+      <c r="C101">
+        <v>0.0493467544780684</v>
+      </c>
+      <c r="D101">
+        <v>0.009224117329619095</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
